--- a/__notebook__/planilha_base.xlsx
+++ b/__notebook__/planilha_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro-baia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\douglas-medina\Documents\ferreiraechagas\webapp_baixa_prazos_quintao\__notebook__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C465628-9B7B-4E21-A247-94F00102AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B35BEF4-37E8-413B-9A92-F9E79C4A410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8D3283B-745C-4681-9A53-1AD8FDED9FA5}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8D3283B-745C-4681-9A53-1AD8FDED9FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cod_Tipo_prazo</t>
   </si>
@@ -48,22 +48,25 @@
     <t>CodPublicacao</t>
   </si>
   <si>
-    <t>Idproc</t>
-  </si>
-  <si>
     <t>DtCompromisso</t>
   </si>
   <si>
-    <t>INSERT INTO [TOTAL_FC].[dbo].[TbPrazos] (IDPROC,DTCOMPROMISSO,CODTIPOPRAZO,PEREMPTORIO,CODADVOGADO,USERCAD,DATACAD,STATUS,CODPUBLICACAO) VALUES (</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>ROBO.RPA</t>
+    <t>ROBO.WEBAPP.LETICIA</t>
+  </si>
+  <si>
+    <t>IdProc</t>
+  </si>
+  <si>
+    <t>25/11/2000</t>
+  </si>
+  <si>
+    <t>24/11/2000</t>
   </si>
 </sst>
 </file>
@@ -115,8 +118,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +435,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14C793-98B2-456F-B2B8-BAFC0ECA7A94}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,16 +447,17 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -476,32 +480,38 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>6666666</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1775</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>228</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
-        <v>1775</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>228</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/__notebook__/planilha_base.xlsx
+++ b/__notebook__/planilha_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\douglas-medina\Documents\ferreiraechagas\webapp_baixa_prazos_quintao\__notebook__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B35BEF4-37E8-413B-9A92-F9E79C4A410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D449FB32-F195-47E6-93E2-648A004F7B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8D3283B-745C-4681-9A53-1AD8FDED9FA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8D3283B-745C-4681-9A53-1AD8FDED9FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -483,7 +484,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>6666666</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>

--- a/__notebook__/planilha_base.xlsx
+++ b/__notebook__/planilha_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\douglas-medina\Documents\ferreiraechagas\webapp_baixa_prazos_quintao\__notebook__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D449FB32-F195-47E6-93E2-648A004F7B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A50923-F2B8-41C8-9B0A-E0A7D93316D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8D3283B-745C-4681-9A53-1AD8FDED9FA5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Cod_Tipo_prazo</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>25/11/2000</t>
-  </si>
-  <si>
-    <t>24/11/2000</t>
   </si>
 </sst>
 </file>
@@ -435,10 +432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14C793-98B2-456F-B2B8-BAFC0ECA7A94}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,14 +498,188 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
+      <c r="G2" s="4">
+        <v>36885</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="2">
-        <v>123</v>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4">
+        <v>36856</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1775</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>228</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <v>36886</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4">
+        <v>36857</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1775</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>228</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>36887</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4">
+        <v>36858</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1775</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>228</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>36888</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4">
+        <v>36859</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1775</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>228</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>36889</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4">
+        <v>36860</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1775</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>228</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>36890</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4">
+        <v>36861</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1775</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>228</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>36891</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
